--- a/data/pca/factorExposure/factorExposure_2018-12-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-12-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.08373059683632313</v>
+        <v>0.05435538783020535</v>
       </c>
       <c r="C2">
-        <v>0.0537332214518951</v>
+        <v>-0.03140277177035387</v>
       </c>
       <c r="D2">
-        <v>-0.06577041709253664</v>
+        <v>-0.00841971629609423</v>
       </c>
       <c r="E2">
-        <v>0.001675113084913281</v>
+        <v>-0.0365936632792677</v>
       </c>
       <c r="F2">
-        <v>-0.118775698780572</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.1161063913701103</v>
+      </c>
+      <c r="G2">
+        <v>0.05167745643117917</v>
+      </c>
+      <c r="H2">
+        <v>-0.06838148791809259</v>
+      </c>
+      <c r="I2">
+        <v>0.1152026053050859</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.1648975711046806</v>
+        <v>0.12620589463137</v>
       </c>
       <c r="C3">
-        <v>-0.05559349034482265</v>
+        <v>-0.06538130837818537</v>
       </c>
       <c r="D3">
-        <v>-0.1556125968201757</v>
+        <v>0.02503149119671253</v>
       </c>
       <c r="E3">
-        <v>0.06582324114290529</v>
+        <v>0.03278415754295792</v>
       </c>
       <c r="F3">
-        <v>-0.3885808715825486</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.3882083152969134</v>
+      </c>
+      <c r="G3">
+        <v>0.2624555260947922</v>
+      </c>
+      <c r="H3">
+        <v>-0.116970247418558</v>
+      </c>
+      <c r="I3">
+        <v>0.3856109542705536</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.07518500340242007</v>
+        <v>0.05901856848244222</v>
       </c>
       <c r="C4">
-        <v>0.01562164660929251</v>
+        <v>-0.03875939736081818</v>
       </c>
       <c r="D4">
-        <v>-0.06818379065323266</v>
+        <v>0.02910169916275848</v>
       </c>
       <c r="E4">
-        <v>0.05455870190811276</v>
+        <v>-0.04411114027508174</v>
       </c>
       <c r="F4">
-        <v>-0.06255182942160348</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.07463169909107589</v>
+      </c>
+      <c r="G4">
+        <v>0.01871067873686623</v>
+      </c>
+      <c r="H4">
+        <v>-0.04682759935877438</v>
+      </c>
+      <c r="I4">
+        <v>0.06929475136147276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.00128669025014812</v>
+        <v>0.02786985891107021</v>
       </c>
       <c r="C6">
-        <v>-0.001806030186857513</v>
+        <v>-0.01330729715309969</v>
       </c>
       <c r="D6">
-        <v>0.001142025844374174</v>
+        <v>0.008703702465557061</v>
       </c>
       <c r="E6">
-        <v>-0.001843547047627872</v>
+        <v>-0.008896818616360472</v>
       </c>
       <c r="F6">
-        <v>0.002425155633394501</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.01144360584961339</v>
+      </c>
+      <c r="G6">
+        <v>-0.01952672398029006</v>
+      </c>
+      <c r="H6">
+        <v>0.0135041324565856</v>
+      </c>
+      <c r="I6">
+        <v>0.01051050452504284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.03850252261073429</v>
+        <v>0.03222259912435392</v>
       </c>
       <c r="C7">
-        <v>0.02011313618086209</v>
+        <v>-0.001969577560543361</v>
       </c>
       <c r="D7">
-        <v>-0.04903624941640306</v>
+        <v>0.03718154655469148</v>
       </c>
       <c r="E7">
-        <v>0.01024797909419616</v>
+        <v>-0.02900488639494484</v>
       </c>
       <c r="F7">
-        <v>-0.08527364918246029</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.05552909064783117</v>
+      </c>
+      <c r="G7">
+        <v>0.04992289006793541</v>
+      </c>
+      <c r="H7">
+        <v>-0.009928249062581539</v>
+      </c>
+      <c r="I7">
+        <v>0.04614896815022304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.0360693050560599</v>
+        <v>0.01581286014428806</v>
       </c>
       <c r="C8">
-        <v>-0.006355828020308507</v>
+        <v>-0.03540822273344225</v>
       </c>
       <c r="D8">
-        <v>-0.05704944531910427</v>
+        <v>0.02450435203698401</v>
       </c>
       <c r="E8">
-        <v>0.04956243783176607</v>
+        <v>-0.01768541750524902</v>
       </c>
       <c r="F8">
-        <v>-0.06528574315239663</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.07224443668876235</v>
+      </c>
+      <c r="G8">
+        <v>0.0436287827894765</v>
+      </c>
+      <c r="H8">
+        <v>-0.04247751795320377</v>
+      </c>
+      <c r="I8">
+        <v>0.06558443402301639</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.06318482160770855</v>
+        <v>0.05094169511288644</v>
       </c>
       <c r="C9">
-        <v>0.02333940698606093</v>
+        <v>-0.02781207736993964</v>
       </c>
       <c r="D9">
-        <v>-0.05369945196758758</v>
+        <v>0.0277204335995809</v>
       </c>
       <c r="E9">
-        <v>0.06532904986247784</v>
+        <v>-0.03787804628402169</v>
       </c>
       <c r="F9">
-        <v>-0.05214820281002414</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.07946254607922314</v>
+      </c>
+      <c r="G9">
+        <v>0.01806325629736647</v>
+      </c>
+      <c r="H9">
+        <v>-0.04917563255885973</v>
+      </c>
+      <c r="I9">
+        <v>0.04490596265575324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.03744845155925988</v>
+        <v>0.05587146135276335</v>
       </c>
       <c r="C10">
-        <v>0.06575927017027461</v>
+        <v>0.150035121180173</v>
       </c>
       <c r="D10">
-        <v>0.127894350901337</v>
+        <v>-0.06632862982117217</v>
       </c>
       <c r="E10">
-        <v>-0.07414321177789875</v>
+        <v>0.04546663446204511</v>
       </c>
       <c r="F10">
-        <v>-0.06338204822020249</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.05006040029388301</v>
+      </c>
+      <c r="G10">
+        <v>0.01648445664997885</v>
+      </c>
+      <c r="H10">
+        <v>-0.03793677842709006</v>
+      </c>
+      <c r="I10">
+        <v>0.02621321057772453</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.05066626140437011</v>
+        <v>0.04267038468991842</v>
       </c>
       <c r="C11">
-        <v>-3.233477742354992e-05</v>
+        <v>-0.03616265505669979</v>
       </c>
       <c r="D11">
-        <v>-0.03289934500296137</v>
+        <v>0.007189648150024837</v>
       </c>
       <c r="E11">
-        <v>0.009804519177044665</v>
+        <v>-0.01269703170705516</v>
       </c>
       <c r="F11">
-        <v>-0.04780303488126656</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.03908372638869068</v>
+      </c>
+      <c r="G11">
+        <v>-0.001072796131106607</v>
+      </c>
+      <c r="H11">
+        <v>-0.01545868766165587</v>
+      </c>
+      <c r="I11">
+        <v>0.04182033184136238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.04196901930469703</v>
+        <v>0.03987742975000022</v>
       </c>
       <c r="C12">
-        <v>-0.0005298456277315819</v>
+        <v>-0.02964252163278978</v>
       </c>
       <c r="D12">
-        <v>-0.0281600748410598</v>
+        <v>0.01806080924822507</v>
       </c>
       <c r="E12">
-        <v>0.02792132876517764</v>
+        <v>-0.0144254387355148</v>
       </c>
       <c r="F12">
-        <v>-0.03648240292872649</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01708558121570974</v>
+      </c>
+      <c r="G12">
+        <v>0.006305538292362575</v>
+      </c>
+      <c r="H12">
+        <v>-0.008974553573334843</v>
+      </c>
+      <c r="I12">
+        <v>0.02924976161466875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.04600349676589522</v>
+        <v>0.03532753777307421</v>
       </c>
       <c r="C13">
-        <v>0.008109195335157127</v>
+        <v>-0.02675273468927902</v>
       </c>
       <c r="D13">
-        <v>-0.05093994818896606</v>
+        <v>-0.006388682368090857</v>
       </c>
       <c r="E13">
-        <v>-0.009401493740364421</v>
+        <v>-0.01033238308511349</v>
       </c>
       <c r="F13">
-        <v>-0.1100774458961562</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.09475936320938225</v>
+      </c>
+      <c r="G13">
+        <v>0.03233341486407383</v>
+      </c>
+      <c r="H13">
+        <v>-0.04034524824556563</v>
+      </c>
+      <c r="I13">
+        <v>0.081356586741473</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.02305472711805554</v>
+        <v>0.0201693912126022</v>
       </c>
       <c r="C14">
-        <v>0.01440128155552353</v>
+        <v>-0.01442526781282231</v>
       </c>
       <c r="D14">
-        <v>-0.04415525572092489</v>
+        <v>0.01089838327131492</v>
       </c>
       <c r="E14">
-        <v>0.01887914674655177</v>
+        <v>-0.02874716286015974</v>
       </c>
       <c r="F14">
-        <v>-0.03285678716786809</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.040254797795948</v>
+      </c>
+      <c r="G14">
+        <v>0.05475349852243205</v>
+      </c>
+      <c r="H14">
+        <v>-0.02613620332503331</v>
+      </c>
+      <c r="I14">
+        <v>0.023322997418983</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.04054196332436218</v>
+        <v>0.03585005935310193</v>
       </c>
       <c r="C16">
-        <v>-0.005883622046370141</v>
+        <v>-0.03339877233191805</v>
       </c>
       <c r="D16">
-        <v>-0.03002545522531938</v>
+        <v>0.01219767835448202</v>
       </c>
       <c r="E16">
-        <v>0.01339518288772041</v>
+        <v>-0.01032521323409876</v>
       </c>
       <c r="F16">
-        <v>-0.03770640080526189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.03422713576642805</v>
+      </c>
+      <c r="G16">
+        <v>0.005591730018923867</v>
+      </c>
+      <c r="H16">
+        <v>-0.008154423449675052</v>
+      </c>
+      <c r="I16">
+        <v>0.04151703570476963</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.0578220980909225</v>
+        <v>0.04467820350616483</v>
       </c>
       <c r="C19">
-        <v>-0.01282183751002173</v>
+        <v>-0.04145787413549255</v>
       </c>
       <c r="D19">
-        <v>-0.05375425719885558</v>
+        <v>0.01038655155744205</v>
       </c>
       <c r="E19">
-        <v>0.01649451589337867</v>
+        <v>-0.01601718266587147</v>
       </c>
       <c r="F19">
-        <v>-0.1005319030684736</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.09589492246616382</v>
+      </c>
+      <c r="G19">
+        <v>0.04957310754977483</v>
+      </c>
+      <c r="H19">
+        <v>-0.03212813330249226</v>
+      </c>
+      <c r="I19">
+        <v>0.08547376045095637</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.01841859817013524</v>
+        <v>0.01251023590493995</v>
       </c>
       <c r="C20">
-        <v>0.01240980551335779</v>
+        <v>-0.01607998009358802</v>
       </c>
       <c r="D20">
-        <v>-0.04459767386953047</v>
+        <v>0.01065747014984096</v>
       </c>
       <c r="E20">
-        <v>0.0343101518389084</v>
+        <v>-0.01979417109311972</v>
       </c>
       <c r="F20">
-        <v>-0.07251258592376215</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.0623071362499845</v>
+      </c>
+      <c r="G20">
+        <v>0.06259406810212556</v>
+      </c>
+      <c r="H20">
+        <v>-0.02049045364446391</v>
+      </c>
+      <c r="I20">
+        <v>0.07720547853205037</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.01922958393707695</v>
+        <v>0.02633234052528998</v>
       </c>
       <c r="C21">
-        <v>-0.01412604924041139</v>
+        <v>-0.02004646788771669</v>
       </c>
       <c r="D21">
-        <v>-0.04505917907235345</v>
+        <v>0.01913471880651183</v>
       </c>
       <c r="E21">
-        <v>0.0122469324720593</v>
+        <v>-0.005928295083328453</v>
       </c>
       <c r="F21">
-        <v>-0.08937854450229787</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.07178307977472392</v>
+      </c>
+      <c r="G21">
+        <v>0.007118079653446371</v>
+      </c>
+      <c r="H21">
+        <v>-0.05304679367398494</v>
+      </c>
+      <c r="I21">
+        <v>0.01263610939229283</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.03947627341544828</v>
+        <v>0.03454971571220756</v>
       </c>
       <c r="C24">
-        <v>-0.002223515145773154</v>
+        <v>-0.02914149750228769</v>
       </c>
       <c r="D24">
-        <v>-0.02973179246292779</v>
+        <v>0.01112447219473005</v>
       </c>
       <c r="E24">
-        <v>0.01669551039462698</v>
+        <v>-0.01164394317581158</v>
       </c>
       <c r="F24">
-        <v>-0.04671087592943478</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.03696138390806789</v>
+      </c>
+      <c r="G24">
+        <v>0.0009817296399919262</v>
+      </c>
+      <c r="H24">
+        <v>-0.009752475290032507</v>
+      </c>
+      <c r="I24">
+        <v>0.04387337144902102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.04191580781923802</v>
+        <v>0.04246179125186124</v>
       </c>
       <c r="C25">
-        <v>0.001379026224073448</v>
+        <v>-0.02830459127765212</v>
       </c>
       <c r="D25">
-        <v>-0.02955902037920492</v>
+        <v>0.009856763025800835</v>
       </c>
       <c r="E25">
-        <v>0.01794907414028756</v>
+        <v>-0.01306932884738747</v>
       </c>
       <c r="F25">
-        <v>-0.04726660632056273</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.04631647890690049</v>
+      </c>
+      <c r="G25">
+        <v>-0.007253558956992975</v>
+      </c>
+      <c r="H25">
+        <v>-0.01422597256362213</v>
+      </c>
+      <c r="I25">
+        <v>0.03765340152801584</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.01910354828463983</v>
+        <v>0.011652713185181</v>
       </c>
       <c r="C26">
-        <v>-0.006691422767245855</v>
+        <v>-0.02577704926692542</v>
       </c>
       <c r="D26">
-        <v>-0.05432257790451026</v>
+        <v>0.004408443123499674</v>
       </c>
       <c r="E26">
-        <v>-0.0005393823024784754</v>
+        <v>-0.003429096667053977</v>
       </c>
       <c r="F26">
-        <v>-0.03840441841535297</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.0466417981185822</v>
+      </c>
+      <c r="G26">
+        <v>0.03121549190190445</v>
+      </c>
+      <c r="H26">
+        <v>-0.01656262171842802</v>
+      </c>
+      <c r="I26">
+        <v>0.040413370915625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>0.1060660558474065</v>
+        <v>0.06063832334738426</v>
       </c>
       <c r="C27">
-        <v>0.02875999135428496</v>
+        <v>-0.01827249770508125</v>
       </c>
       <c r="D27">
-        <v>-0.0450397320219021</v>
+        <v>0.009440275789689227</v>
       </c>
       <c r="E27">
-        <v>0.04251878988339072</v>
+        <v>-0.02960143365610258</v>
       </c>
       <c r="F27">
-        <v>-0.06041100032125769</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.04752100978195485</v>
+      </c>
+      <c r="G27">
+        <v>0.03365653782033518</v>
+      </c>
+      <c r="H27">
+        <v>-0.02904557054902672</v>
+      </c>
+      <c r="I27">
+        <v>0.02611167020696758</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.05070705820341068</v>
+        <v>0.08119083704673034</v>
       </c>
       <c r="C28">
-        <v>0.08369552768625164</v>
+        <v>0.2285953284947901</v>
       </c>
       <c r="D28">
-        <v>0.2123701776722654</v>
+        <v>-0.09205037689997483</v>
       </c>
       <c r="E28">
-        <v>-0.1035323191221247</v>
+        <v>0.06844533679259825</v>
       </c>
       <c r="F28">
-        <v>-0.03584568805861326</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.02862601729788892</v>
+      </c>
+      <c r="G28">
+        <v>0.03688953009944174</v>
+      </c>
+      <c r="H28">
+        <v>-0.03586429034677133</v>
+      </c>
+      <c r="I28">
+        <v>0.04309931751762718</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.02463695075537911</v>
+        <v>0.02064425350887438</v>
       </c>
       <c r="C29">
-        <v>0.01280571468666898</v>
+        <v>-0.0151688699085421</v>
       </c>
       <c r="D29">
-        <v>-0.04438909874492536</v>
+        <v>0.01395981169840124</v>
       </c>
       <c r="E29">
-        <v>0.03151872462662852</v>
+        <v>-0.03160134114562196</v>
       </c>
       <c r="F29">
-        <v>-0.02446742023648832</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.03643834897828432</v>
+      </c>
+      <c r="G29">
+        <v>0.05591775875839836</v>
+      </c>
+      <c r="H29">
+        <v>-0.03077045638154335</v>
+      </c>
+      <c r="I29">
+        <v>0.006784431909180049</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.1014182435237062</v>
+        <v>0.08259721773413907</v>
       </c>
       <c r="C30">
-        <v>0.03365103660007932</v>
+        <v>-0.06679374739256862</v>
       </c>
       <c r="D30">
-        <v>-0.07034093610135177</v>
+        <v>-0.01920768963155588</v>
       </c>
       <c r="E30">
-        <v>0.02370008843589574</v>
+        <v>-0.04033137539670306</v>
       </c>
       <c r="F30">
-        <v>-0.1068494190940644</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.1036180627073961</v>
+      </c>
+      <c r="G30">
+        <v>0.01847369909777008</v>
+      </c>
+      <c r="H30">
+        <v>-5.961299281091854e-05</v>
+      </c>
+      <c r="I30">
+        <v>0.03050378246309415</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.06141371661606893</v>
+        <v>0.05616946859204576</v>
       </c>
       <c r="C31">
-        <v>0.01454893640715801</v>
+        <v>-0.02005909803336592</v>
       </c>
       <c r="D31">
-        <v>-0.03414467131820852</v>
+        <v>-0.003018408565994996</v>
       </c>
       <c r="E31">
-        <v>-0.02766101987655951</v>
+        <v>-0.02209301485159925</v>
       </c>
       <c r="F31">
-        <v>0.01594441402042106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.002537543216004923</v>
+      </c>
+      <c r="G31">
+        <v>0.03942970994753554</v>
+      </c>
+      <c r="H31">
+        <v>-0.050692410783308</v>
+      </c>
+      <c r="I31">
+        <v>0.01697989663097341</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.04960306928497971</v>
+        <v>0.02817892117853996</v>
       </c>
       <c r="C32">
-        <v>0.004982672009422265</v>
+        <v>-0.03079995555539908</v>
       </c>
       <c r="D32">
-        <v>-0.05673646335072643</v>
+        <v>0.02921319835083902</v>
       </c>
       <c r="E32">
-        <v>0.03924348803938379</v>
+        <v>-0.03985821641457965</v>
       </c>
       <c r="F32">
-        <v>-0.08302564575530667</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.07315435837425949</v>
+      </c>
+      <c r="G32">
+        <v>0.03283857181274623</v>
+      </c>
+      <c r="H32">
+        <v>-0.0339042746558737</v>
+      </c>
+      <c r="I32">
+        <v>0.06242117505171629</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.04935577634302767</v>
+        <v>0.04350082500826701</v>
       </c>
       <c r="C33">
-        <v>-0.006339139813724006</v>
+        <v>-0.05504596502313407</v>
       </c>
       <c r="D33">
-        <v>-0.07972827733553373</v>
+        <v>-9.031163041675311e-05</v>
       </c>
       <c r="E33">
-        <v>0.01863291183594198</v>
+        <v>-0.01132964983959326</v>
       </c>
       <c r="F33">
-        <v>-0.0643166095279578</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.07175546742265627</v>
+      </c>
+      <c r="G33">
+        <v>0.04001734905187026</v>
+      </c>
+      <c r="H33">
+        <v>-0.04504423229886345</v>
+      </c>
+      <c r="I33">
+        <v>0.0452827449966095</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.04003911259498866</v>
+        <v>0.0369562451179802</v>
       </c>
       <c r="C34">
-        <v>0.005362270397198752</v>
+        <v>-0.03134977844190238</v>
       </c>
       <c r="D34">
-        <v>-0.03502535700284379</v>
+        <v>0.01705295938656996</v>
       </c>
       <c r="E34">
-        <v>0.01901699781012197</v>
+        <v>-0.02140905408261771</v>
       </c>
       <c r="F34">
-        <v>-0.03960310412941147</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.03812169974559626</v>
+      </c>
+      <c r="G34">
+        <v>0.0001080520050480383</v>
+      </c>
+      <c r="H34">
+        <v>-0.01223917753432285</v>
+      </c>
+      <c r="I34">
+        <v>0.04192408272397388</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01312157873511823</v>
+        <v>0.01579946002950916</v>
       </c>
       <c r="C36">
-        <v>0.01141958819130019</v>
+        <v>-9.309844010869605e-05</v>
       </c>
       <c r="D36">
-        <v>-0.01204667198204673</v>
+        <v>0.00340879689050265</v>
       </c>
       <c r="E36">
-        <v>0.01126806843867093</v>
+        <v>-0.0109754955723577</v>
       </c>
       <c r="F36">
-        <v>-0.02366338503405616</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.02787965493077183</v>
+      </c>
+      <c r="G36">
+        <v>0.02936767679643152</v>
+      </c>
+      <c r="H36">
+        <v>-0.02927312118722145</v>
+      </c>
+      <c r="I36">
+        <v>-0.005139287877761939</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.02566535612812519</v>
+        <v>0.02631227129161545</v>
       </c>
       <c r="C38">
-        <v>0.007553923135399715</v>
+        <v>-0.003059439698234404</v>
       </c>
       <c r="D38">
-        <v>0.004497229781426433</v>
+        <v>0.005204914611294525</v>
       </c>
       <c r="E38">
-        <v>0.01022463251108985</v>
+        <v>-0.004860269467277651</v>
       </c>
       <c r="F38">
-        <v>-0.0160419751096284</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.04356873703460132</v>
+      </c>
+      <c r="G38">
+        <v>0.0113939512221108</v>
+      </c>
+      <c r="H38">
+        <v>-0.03310465496744514</v>
+      </c>
+      <c r="I38">
+        <v>0.0005378605695583818</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.06149488336922049</v>
+        <v>0.04663615970415601</v>
       </c>
       <c r="C39">
-        <v>0.007265891828292446</v>
+        <v>-0.05173340139513397</v>
       </c>
       <c r="D39">
-        <v>-0.04883214940556466</v>
+        <v>0.01313753869692937</v>
       </c>
       <c r="E39">
-        <v>0.007032897318624917</v>
+        <v>-0.02675192521207526</v>
       </c>
       <c r="F39">
-        <v>-0.03703344392768532</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.05561726148204533</v>
+      </c>
+      <c r="G39">
+        <v>-0.007084598041404578</v>
+      </c>
+      <c r="H39">
+        <v>-0.02443056298442426</v>
+      </c>
+      <c r="I39">
+        <v>0.02531837392162934</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.05473818055882688</v>
+        <v>0.04535555026010334</v>
       </c>
       <c r="C40">
-        <v>0.02468355303183629</v>
+        <v>-0.04561772207813275</v>
       </c>
       <c r="D40">
-        <v>-0.07425939291761584</v>
+        <v>-0.007153386988938632</v>
       </c>
       <c r="E40">
-        <v>-0.01028066543820874</v>
+        <v>-0.02872211629413304</v>
       </c>
       <c r="F40">
-        <v>-0.08858262387498643</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.08257725524919274</v>
+      </c>
+      <c r="G40">
+        <v>0.03137358481876321</v>
+      </c>
+      <c r="H40">
+        <v>-0.03692217873841706</v>
+      </c>
+      <c r="I40">
+        <v>0.116280989721525</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.007997823992754749</v>
+        <v>-0.0002205421060437954</v>
       </c>
       <c r="C41">
-        <v>0.002343035065219525</v>
+        <v>-0.002877000939400916</v>
       </c>
       <c r="D41">
-        <v>-0.0282382248991507</v>
+        <v>-0.0001469121656473978</v>
       </c>
       <c r="E41">
-        <v>0.01065154137196895</v>
+        <v>-0.00824371519008805</v>
       </c>
       <c r="F41">
-        <v>0.01248101678033604</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.007289023302787725</v>
+      </c>
+      <c r="G41">
+        <v>0.03862192037880275</v>
+      </c>
+      <c r="H41">
+        <v>-0.04432033606549999</v>
+      </c>
+      <c r="I41">
+        <v>0.002284686485142029</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>0.2479945609854448</v>
+        <v>0.2008039478426207</v>
       </c>
       <c r="C42">
-        <v>-0.9120733989239705</v>
+        <v>-0.334485867074626</v>
       </c>
       <c r="D42">
-        <v>0.133085009928466</v>
+        <v>0.1052915567653607</v>
       </c>
       <c r="E42">
-        <v>-0.2276581066539644</v>
+        <v>0.8823128707677566</v>
       </c>
       <c r="F42">
-        <v>0.03152219094437777</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.1642590424583862</v>
+      </c>
+      <c r="G42">
+        <v>0.006039885943178294</v>
+      </c>
+      <c r="H42">
+        <v>0.006289366021303343</v>
+      </c>
+      <c r="I42">
+        <v>0.03316861560577308</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.007679405979386425</v>
+        <v>0.002422244489220813</v>
       </c>
       <c r="C43">
-        <v>0.001377258117498405</v>
+        <v>-0.005525595157136732</v>
       </c>
       <c r="D43">
-        <v>-0.03050930208159225</v>
+        <v>-0.001865136011256305</v>
       </c>
       <c r="E43">
-        <v>0.00586272346720319</v>
+        <v>-0.006088319370050611</v>
       </c>
       <c r="F43">
-        <v>-0.01954080415899489</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.01911600066890671</v>
+      </c>
+      <c r="G43">
+        <v>0.03235941723076732</v>
+      </c>
+      <c r="H43">
+        <v>-0.02525516359456874</v>
+      </c>
+      <c r="I43">
+        <v>0.01234628626153725</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.02758539932285818</v>
+        <v>0.01955752403886495</v>
       </c>
       <c r="C44">
-        <v>0.00153002915909681</v>
+        <v>-0.03136487780675699</v>
       </c>
       <c r="D44">
-        <v>-0.07111754864589358</v>
+        <v>0.01276486108279333</v>
       </c>
       <c r="E44">
-        <v>0.0262552137840172</v>
+        <v>-0.01486321938766215</v>
       </c>
       <c r="F44">
-        <v>-0.11435809273583</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.1174352891218176</v>
+      </c>
+      <c r="G44">
+        <v>0.08643880652549386</v>
+      </c>
+      <c r="H44">
+        <v>-0.07018944871421427</v>
+      </c>
+      <c r="I44">
+        <v>0.061790164991914</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.02875090128965596</v>
+        <v>0.02084656509379939</v>
       </c>
       <c r="C46">
-        <v>0.008227601158854972</v>
+        <v>-0.03102914112107318</v>
       </c>
       <c r="D46">
-        <v>-0.05292911176688343</v>
+        <v>0.006040929271547842</v>
       </c>
       <c r="E46">
-        <v>0.01519839141401019</v>
+        <v>-0.0332328324272667</v>
       </c>
       <c r="F46">
-        <v>-0.01472638846015472</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.04751794315737284</v>
+      </c>
+      <c r="G46">
+        <v>0.05704561842488745</v>
+      </c>
+      <c r="H46">
+        <v>-0.03118075525711842</v>
+      </c>
+      <c r="I46">
+        <v>0.01003311764148975</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.08687325960666462</v>
+        <v>0.08172926965032561</v>
       </c>
       <c r="C47">
-        <v>0.01777337199417823</v>
+        <v>-0.02654206380395385</v>
       </c>
       <c r="D47">
-        <v>-0.03901087985169952</v>
+        <v>0.005977832787258805</v>
       </c>
       <c r="E47">
-        <v>0.01504722006872511</v>
+        <v>-0.03108604648129168</v>
       </c>
       <c r="F47">
-        <v>0.01969974750035074</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.01812131046805507</v>
+      </c>
+      <c r="G47">
+        <v>0.06568068491235526</v>
+      </c>
+      <c r="H47">
+        <v>-0.04388321288793686</v>
+      </c>
+      <c r="I47">
+        <v>0.0288802844845335</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.01281356775347549</v>
+        <v>0.01916851071548993</v>
       </c>
       <c r="C48">
-        <v>0.006867728771815909</v>
+        <v>-0.01130092159553186</v>
       </c>
       <c r="D48">
-        <v>-0.0341447287277944</v>
+        <v>0.004458852627457322</v>
       </c>
       <c r="E48">
-        <v>0.01305917800582982</v>
+        <v>-0.01495737573872821</v>
       </c>
       <c r="F48">
-        <v>-0.02621887857730739</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.02961522192695725</v>
+      </c>
+      <c r="G48">
+        <v>0.02238294265167364</v>
+      </c>
+      <c r="H48">
+        <v>-0.02231505807592067</v>
+      </c>
+      <c r="I48">
+        <v>0.01311370405161609</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.08620295856227898</v>
+        <v>0.08206399385804533</v>
       </c>
       <c r="C50">
-        <v>0.004519389958475022</v>
+        <v>-0.03521124458833644</v>
       </c>
       <c r="D50">
-        <v>-0.04115557589318911</v>
+        <v>0.02196539733143858</v>
       </c>
       <c r="E50">
-        <v>-0.004265100378302698</v>
+        <v>-0.0238637526059832</v>
       </c>
       <c r="F50">
-        <v>0.01185484017883635</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.004515783401734497</v>
+      </c>
+      <c r="G50">
+        <v>0.047421919691916</v>
+      </c>
+      <c r="H50">
+        <v>-0.001214861264808605</v>
+      </c>
+      <c r="I50">
+        <v>-0.005040633869764358</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.05467550956317708</v>
+        <v>0.0386207441967908</v>
       </c>
       <c r="C51">
-        <v>0.0169969872481487</v>
+        <v>-0.001379907771604413</v>
       </c>
       <c r="D51">
-        <v>-0.03248440164921871</v>
+        <v>-0.01269320957289919</v>
       </c>
       <c r="E51">
-        <v>-0.02668628758096576</v>
+        <v>-0.009047094334220162</v>
       </c>
       <c r="F51">
-        <v>-0.0584871826438666</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.08409919928569061</v>
+      </c>
+      <c r="G51">
+        <v>0.0611913270277206</v>
+      </c>
+      <c r="H51">
+        <v>-0.06833774191810889</v>
+      </c>
+      <c r="I51">
+        <v>0.04284923117156345</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1232432547407111</v>
+        <v>0.1130134645220486</v>
       </c>
       <c r="C53">
-        <v>0.02795109117253429</v>
+        <v>-0.04664413146025136</v>
       </c>
       <c r="D53">
-        <v>-0.06071059343761055</v>
+        <v>0.01173190268382278</v>
       </c>
       <c r="E53">
-        <v>0.002813702701280874</v>
+        <v>-0.05852818097145121</v>
       </c>
       <c r="F53">
-        <v>0.07490581747989843</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.05838616447537759</v>
+      </c>
+      <c r="G53">
+        <v>0.02859945992352263</v>
+      </c>
+      <c r="H53">
+        <v>-0.02529665342495608</v>
+      </c>
+      <c r="I53">
+        <v>0.02801606125018649</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.02230707002632454</v>
+        <v>0.02482398689278761</v>
       </c>
       <c r="C54">
-        <v>0.0211853315988687</v>
+        <v>-0.001469492793100792</v>
       </c>
       <c r="D54">
-        <v>-0.03100225560041722</v>
+        <v>0.004635596228312306</v>
       </c>
       <c r="E54">
-        <v>0.01861289259297157</v>
+        <v>-0.03058782717370794</v>
       </c>
       <c r="F54">
-        <v>-0.03404568524281143</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.03546710067619192</v>
+      </c>
+      <c r="G54">
+        <v>0.05290538195432568</v>
+      </c>
+      <c r="H54">
+        <v>-0.04113325138275684</v>
+      </c>
+      <c r="I54">
+        <v>0.001569306952933986</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1051348980790343</v>
+        <v>0.09296165070131587</v>
       </c>
       <c r="C55">
-        <v>0.0196579143108375</v>
+        <v>-0.03862026332765525</v>
       </c>
       <c r="D55">
-        <v>-0.01839446377599131</v>
+        <v>0.02682792650604678</v>
       </c>
       <c r="E55">
-        <v>0.04112995461423727</v>
+        <v>-0.04411298139752379</v>
       </c>
       <c r="F55">
-        <v>0.02752883720428723</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.04250612048027261</v>
+      </c>
+      <c r="G55">
+        <v>0.04661471477558637</v>
+      </c>
+      <c r="H55">
+        <v>0.006424826706306847</v>
+      </c>
+      <c r="I55">
+        <v>0.01026093020085244</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1622856401772634</v>
+        <v>0.1554923301734653</v>
       </c>
       <c r="C56">
-        <v>0.07700710981212446</v>
+        <v>-0.03933063743543525</v>
       </c>
       <c r="D56">
-        <v>-0.03581336637052841</v>
+        <v>0.01184336934117453</v>
       </c>
       <c r="E56">
-        <v>0.02184093710681454</v>
+        <v>-0.0941521192057329</v>
       </c>
       <c r="F56">
-        <v>0.1101218907997021</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.1014712312116991</v>
+      </c>
+      <c r="G56">
+        <v>-0.004904029730876743</v>
+      </c>
+      <c r="H56">
+        <v>0.02590851996232339</v>
+      </c>
+      <c r="I56">
+        <v>0.02630293918283546</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>0.06527804154310718</v>
+        <v>0.05458655347800629</v>
       </c>
       <c r="C57">
-        <v>0.01092696399128485</v>
+        <v>-0.03449653767979599</v>
       </c>
       <c r="D57">
-        <v>-0.05382618119923455</v>
+        <v>-0.006691930821933148</v>
       </c>
       <c r="E57">
-        <v>-0.008062283729158161</v>
+        <v>-0.006298433364522694</v>
       </c>
       <c r="F57">
-        <v>-0.05943628155648105</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.06327466940784549</v>
+      </c>
+      <c r="G57">
+        <v>0.01850535862482654</v>
+      </c>
+      <c r="H57">
+        <v>-0.02420015854796654</v>
+      </c>
+      <c r="I57">
+        <v>0.03494539588921596</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.1883116441346287</v>
+        <v>0.1904866317121281</v>
       </c>
       <c r="C58">
-        <v>0.002406260363917093</v>
+        <v>-0.1531908952992212</v>
       </c>
       <c r="D58">
-        <v>-0.1260096061564564</v>
+        <v>-0.04291567921189355</v>
       </c>
       <c r="E58">
-        <v>0.01092045186827093</v>
+        <v>0.01700314336431888</v>
       </c>
       <c r="F58">
-        <v>-0.2450429635362097</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.3813299530462494</v>
+      </c>
+      <c r="G58">
+        <v>0.3735386869050985</v>
+      </c>
+      <c r="H58">
+        <v>0.2502173571736536</v>
+      </c>
+      <c r="I58">
+        <v>-0.7194296034827782</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.06005128188053858</v>
+        <v>0.08965743679927098</v>
       </c>
       <c r="C59">
-        <v>0.1013447330246132</v>
+        <v>0.1880757266365032</v>
       </c>
       <c r="D59">
-        <v>0.1466002319518091</v>
+        <v>-0.09308275516732592</v>
       </c>
       <c r="E59">
-        <v>-0.06462315988952815</v>
+        <v>0.02689529023577188</v>
       </c>
       <c r="F59">
-        <v>-0.04307760124583088</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.05412504309895132</v>
+      </c>
+      <c r="G59">
+        <v>0.00651766379319883</v>
+      </c>
+      <c r="H59">
+        <v>-0.02410569820776855</v>
+      </c>
+      <c r="I59">
+        <v>0.014292117995386</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.185512891551594</v>
+        <v>0.2008757770084372</v>
       </c>
       <c r="C60">
-        <v>0.05684359613265116</v>
+        <v>0.005232886992442736</v>
       </c>
       <c r="D60">
-        <v>0.002783350281386496</v>
+        <v>-0.06296756627797354</v>
       </c>
       <c r="E60">
-        <v>-0.08095951207947753</v>
+        <v>-0.01526984310694987</v>
       </c>
       <c r="F60">
-        <v>-0.1401974248874839</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.1847700321953892</v>
+      </c>
+      <c r="G60">
+        <v>-0.3519245421395025</v>
+      </c>
+      <c r="H60">
+        <v>0.04601649085623882</v>
+      </c>
+      <c r="I60">
+        <v>0.03459554410285538</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.03133510186184041</v>
+        <v>0.03469553256789827</v>
       </c>
       <c r="C61">
-        <v>0.003004986773540966</v>
+        <v>-0.03346047810692388</v>
       </c>
       <c r="D61">
-        <v>-0.02571465264450822</v>
+        <v>0.01351235093071121</v>
       </c>
       <c r="E61">
-        <v>0.01886741836458804</v>
+        <v>-0.01901642021910905</v>
       </c>
       <c r="F61">
-        <v>-0.03794666831195228</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.03950085904496485</v>
+      </c>
+      <c r="G61">
+        <v>-0.01660757768733337</v>
+      </c>
+      <c r="H61">
+        <v>-0.01150973996701824</v>
+      </c>
+      <c r="I61">
+        <v>0.01315239698379395</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.02845017494366337</v>
+        <v>0.02481032951612754</v>
       </c>
       <c r="C63">
-        <v>0.01219527903228376</v>
+        <v>-0.02234980407923177</v>
       </c>
       <c r="D63">
-        <v>-0.03979134477478277</v>
+        <v>0.007249175936089309</v>
       </c>
       <c r="E63">
-        <v>0.01330028535299626</v>
+        <v>-0.01987394234373922</v>
       </c>
       <c r="F63">
-        <v>-0.04378476314944536</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.03024149278595065</v>
+      </c>
+      <c r="G63">
+        <v>0.04813875514656552</v>
+      </c>
+      <c r="H63">
+        <v>-0.01437681151521743</v>
+      </c>
+      <c r="I63">
+        <v>0.02942338953141644</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.05315185103033877</v>
+        <v>0.05240752900705915</v>
       </c>
       <c r="C64">
-        <v>0.007350826763507005</v>
+        <v>-0.03519530123666376</v>
       </c>
       <c r="D64">
-        <v>-0.05256014119264114</v>
+        <v>0.02449011862001345</v>
       </c>
       <c r="E64">
-        <v>0.05574926281279828</v>
+        <v>-0.02694509470566856</v>
       </c>
       <c r="F64">
-        <v>-0.0383166746050664</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.04261405656964062</v>
+      </c>
+      <c r="G64">
+        <v>0.02263104663567631</v>
+      </c>
+      <c r="H64">
+        <v>-0.06861445157424888</v>
+      </c>
+      <c r="I64">
+        <v>0.05372812439942209</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.001258923519548211</v>
+        <v>0.03134341485159963</v>
       </c>
       <c r="C65">
-        <v>-0.002887123998971663</v>
+        <v>-0.01358213893712705</v>
       </c>
       <c r="D65">
-        <v>0.001523620154483828</v>
+        <v>0.008954351062399887</v>
       </c>
       <c r="E65">
-        <v>-0.001935711229734202</v>
+        <v>-0.009041037731938718</v>
       </c>
       <c r="F65">
-        <v>0.0022591808888241</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.008394642385967477</v>
+      </c>
+      <c r="G65">
+        <v>-0.02415779279204739</v>
+      </c>
+      <c r="H65">
+        <v>0.01136496813528625</v>
+      </c>
+      <c r="I65">
+        <v>0.01056743409362649</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.06069593472248763</v>
+        <v>0.05587867645290287</v>
       </c>
       <c r="C66">
-        <v>0.02197211072216071</v>
+        <v>-0.06111883823541236</v>
       </c>
       <c r="D66">
-        <v>-0.06908532277186917</v>
+        <v>0.008279698764570511</v>
       </c>
       <c r="E66">
-        <v>0.03117812467405012</v>
+        <v>-0.05267586425637019</v>
       </c>
       <c r="F66">
-        <v>-0.07616470620600255</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.06981643840720594</v>
+      </c>
+      <c r="G66">
+        <v>-0.01359208928771</v>
+      </c>
+      <c r="H66">
+        <v>-0.009491240115398224</v>
+      </c>
+      <c r="I66">
+        <v>0.06675118437532859</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.04439907372435803</v>
+        <v>0.04463321211902743</v>
       </c>
       <c r="C67">
-        <v>0.01409004302296219</v>
+        <v>0.004894185469392419</v>
       </c>
       <c r="D67">
-        <v>0.01760585593630145</v>
+        <v>-0.002736040110888434</v>
       </c>
       <c r="E67">
-        <v>-0.003672127938818086</v>
+        <v>-0.006218406127629825</v>
       </c>
       <c r="F67">
-        <v>-0.02157994120453998</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.03457770320763934</v>
+      </c>
+      <c r="G67">
+        <v>-0.01404233047561923</v>
+      </c>
+      <c r="H67">
+        <v>-0.04383902789943997</v>
+      </c>
+      <c r="I67">
+        <v>-0.003904532762551162</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.06861689161100258</v>
+        <v>0.08680193591802282</v>
       </c>
       <c r="C68">
-        <v>0.09120677167796495</v>
+        <v>0.215132141680299</v>
       </c>
       <c r="D68">
-        <v>0.2072557796165792</v>
+        <v>-0.09833179669773726</v>
       </c>
       <c r="E68">
-        <v>-0.0940518160972231</v>
+        <v>0.05561018980365853</v>
       </c>
       <c r="F68">
-        <v>-0.01952816465486996</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.008538658845002075</v>
+      </c>
+      <c r="G68">
+        <v>0.04360378446946717</v>
+      </c>
+      <c r="H68">
+        <v>0.01028576772169127</v>
+      </c>
+      <c r="I68">
+        <v>-0.02065341453978356</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.07301755556251359</v>
+        <v>0.06738431983586772</v>
       </c>
       <c r="C69">
-        <v>0.02238795695118894</v>
+        <v>-0.02228097041686073</v>
       </c>
       <c r="D69">
-        <v>-0.02366474325250257</v>
+        <v>0.001275212102076047</v>
       </c>
       <c r="E69">
-        <v>-0.001213616378138173</v>
+        <v>-0.03237950441017337</v>
       </c>
       <c r="F69">
-        <v>0.005068730352747634</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.004376435037001581</v>
+      </c>
+      <c r="G69">
+        <v>0.04217942555025428</v>
+      </c>
+      <c r="H69">
+        <v>-0.03359844681312589</v>
+      </c>
+      <c r="I69">
+        <v>0.02381612246476811</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.07109457370854251</v>
+        <v>0.08676726098211197</v>
       </c>
       <c r="C71">
-        <v>0.1136574905620332</v>
+        <v>0.2318949737785832</v>
       </c>
       <c r="D71">
-        <v>0.2459347416032103</v>
+        <v>-0.1112872619325058</v>
       </c>
       <c r="E71">
-        <v>-0.1534876845742181</v>
+        <v>0.07142066718753473</v>
       </c>
       <c r="F71">
-        <v>-0.06530434842051934</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.03616227578462305</v>
+      </c>
+      <c r="G71">
+        <v>0.02342942598542152</v>
+      </c>
+      <c r="H71">
+        <v>-0.01251106312284898</v>
+      </c>
+      <c r="I71">
+        <v>0.005162427983597875</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1260673041530498</v>
+        <v>0.1324725109267733</v>
       </c>
       <c r="C72">
-        <v>0.07187088868925935</v>
+        <v>-0.05357716268057161</v>
       </c>
       <c r="D72">
-        <v>-0.04260723552061808</v>
+        <v>0.002175921846311274</v>
       </c>
       <c r="E72">
-        <v>0.01877324498004387</v>
+        <v>-0.09074863793728023</v>
       </c>
       <c r="F72">
-        <v>-0.08364396790476272</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.09888624626800768</v>
+      </c>
+      <c r="G72">
+        <v>-0.09424879173366539</v>
+      </c>
+      <c r="H72">
+        <v>0.01663991478822756</v>
+      </c>
+      <c r="I72">
+        <v>-0.1354275161656728</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.2861305752166434</v>
+        <v>0.2860976183210829</v>
       </c>
       <c r="C73">
-        <v>0.07151088433470133</v>
+        <v>-0.01209873753512935</v>
       </c>
       <c r="D73">
-        <v>0.04545433764223852</v>
+        <v>-0.09694861855160034</v>
       </c>
       <c r="E73">
-        <v>-0.1123404075556409</v>
+        <v>0.02592402236040705</v>
       </c>
       <c r="F73">
-        <v>-0.2410703286022583</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.2620930537927041</v>
+      </c>
+      <c r="G73">
+        <v>-0.5285032712711376</v>
+      </c>
+      <c r="H73">
+        <v>0.124465563068205</v>
+      </c>
+      <c r="I73">
+        <v>-0.005290796340084905</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1446000624068969</v>
+        <v>0.1389737215324437</v>
       </c>
       <c r="C74">
-        <v>0.02591646747350291</v>
+        <v>-0.05503352241720464</v>
       </c>
       <c r="D74">
-        <v>-0.03743771473598446</v>
+        <v>0.01141035648910848</v>
       </c>
       <c r="E74">
-        <v>0.007887175817106908</v>
+        <v>-0.05818985694459082</v>
       </c>
       <c r="F74">
-        <v>0.06219776177142639</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.08109418772738521</v>
+      </c>
+      <c r="G74">
+        <v>-0.006081563364177095</v>
+      </c>
+      <c r="H74">
+        <v>0.01734307218744886</v>
+      </c>
+      <c r="I74">
+        <v>0.07050868633016537</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2267448748083098</v>
+        <v>0.2414504583061411</v>
       </c>
       <c r="C75">
-        <v>0.07769869792784312</v>
+        <v>-0.06563674824997337</v>
       </c>
       <c r="D75">
-        <v>-0.0718858969238009</v>
+        <v>-0.008139520286701868</v>
       </c>
       <c r="E75">
-        <v>-0.009618326992709267</v>
+        <v>-0.1237544098144813</v>
       </c>
       <c r="F75">
-        <v>0.1413130182858902</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.146925510046114</v>
+      </c>
+      <c r="G75">
+        <v>0.01850899841612373</v>
+      </c>
+      <c r="H75">
+        <v>-0.007293671956423145</v>
+      </c>
+      <c r="I75">
+        <v>0.01191706387656459</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.2610869751394861</v>
+        <v>0.2562816636349334</v>
       </c>
       <c r="C76">
-        <v>0.09817042961848434</v>
+        <v>-0.04669115812507874</v>
       </c>
       <c r="D76">
-        <v>-0.03372302285650065</v>
+        <v>0.02743007514430473</v>
       </c>
       <c r="E76">
-        <v>0.05183078597262106</v>
+        <v>-0.1505370014531363</v>
       </c>
       <c r="F76">
-        <v>0.1334823262450652</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1958664487125054</v>
+      </c>
+      <c r="G76">
+        <v>0.03678525573304615</v>
+      </c>
+      <c r="H76">
+        <v>0.07289727907222179</v>
+      </c>
+      <c r="I76">
+        <v>0.02986027365700837</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.1427532012252608</v>
+        <v>0.1027933172484683</v>
       </c>
       <c r="C77">
-        <v>-0.04227661502521621</v>
+        <v>-0.08361876556167691</v>
       </c>
       <c r="D77">
-        <v>-0.08842244723378533</v>
+        <v>0.02529125469270191</v>
       </c>
       <c r="E77">
-        <v>0.02244806464891966</v>
+        <v>0.0334197048496291</v>
       </c>
       <c r="F77">
-        <v>-0.214787242387434</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.1676271986666777</v>
+      </c>
+      <c r="G77">
+        <v>0.2294861629399083</v>
+      </c>
+      <c r="H77">
+        <v>0.004653113910681365</v>
+      </c>
+      <c r="I77">
+        <v>0.2542331479412981</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.08150132257787696</v>
+        <v>0.06077525547083295</v>
       </c>
       <c r="C78">
-        <v>-0.02070119804016503</v>
+        <v>-0.0661017435761119</v>
       </c>
       <c r="D78">
-        <v>-0.08976303312080181</v>
+        <v>0.02782406851603352</v>
       </c>
       <c r="E78">
-        <v>0.04725919418881639</v>
+        <v>-0.02656678152494528</v>
       </c>
       <c r="F78">
-        <v>-0.03711485049627057</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.07147874832811714</v>
+      </c>
+      <c r="G78">
+        <v>0.02933746343923719</v>
+      </c>
+      <c r="H78">
+        <v>-0.02882766742815996</v>
+      </c>
+      <c r="I78">
+        <v>0.04658995879280617</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.126481311173491</v>
+        <v>0.1477518238355276</v>
       </c>
       <c r="C80">
-        <v>-0.1275285808801599</v>
+        <v>0.3723233728434795</v>
       </c>
       <c r="D80">
-        <v>0.4293746956856473</v>
+        <v>0.9014196182173857</v>
       </c>
       <c r="E80">
-        <v>0.8627032386736757</v>
+        <v>0.02252258159599645</v>
       </c>
       <c r="F80">
-        <v>-0.02729602720414659</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.06557047292358172</v>
+      </c>
+      <c r="G80">
+        <v>-0.05373284923611406</v>
+      </c>
+      <c r="H80">
+        <v>-0.03083244780147951</v>
+      </c>
+      <c r="I80">
+        <v>-0.08805419562655246</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1668546358293063</v>
+        <v>0.1811117752521005</v>
       </c>
       <c r="C81">
-        <v>0.05738684357749407</v>
+        <v>-0.03900988041736212</v>
       </c>
       <c r="D81">
-        <v>-0.03520975201837924</v>
+        <v>0.008048258289071852</v>
       </c>
       <c r="E81">
-        <v>0.01200705519221658</v>
+        <v>-0.1016786573431378</v>
       </c>
       <c r="F81">
-        <v>0.1524351563272452</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.1451436243263629</v>
+      </c>
+      <c r="G81">
+        <v>0.04990889637626381</v>
+      </c>
+      <c r="H81">
+        <v>0.02808949490492131</v>
+      </c>
+      <c r="I81">
+        <v>0.002736783799953324</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.06123003882113266</v>
+        <v>0.04890711690567289</v>
       </c>
       <c r="C83">
-        <v>-0.05207021555185907</v>
+        <v>-0.05291403966606229</v>
       </c>
       <c r="D83">
-        <v>-0.07378287006617404</v>
+        <v>0.008735497306677675</v>
       </c>
       <c r="E83">
-        <v>0.005272284824992745</v>
+        <v>0.01943015914463286</v>
       </c>
       <c r="F83">
-        <v>-0.01997549380837789</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.04375728049775861</v>
+      </c>
+      <c r="G83">
+        <v>0.02451593486559973</v>
+      </c>
+      <c r="H83">
+        <v>-0.04685139252552266</v>
+      </c>
+      <c r="I83">
+        <v>0.03841411375832177</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.2318546994100824</v>
+        <v>0.2382753649201843</v>
       </c>
       <c r="C85">
-        <v>0.04356886702725798</v>
+        <v>-0.08958108646834403</v>
       </c>
       <c r="D85">
-        <v>-0.06686318084839366</v>
+        <v>0.01960948637281691</v>
       </c>
       <c r="E85">
-        <v>0.04397615377880577</v>
+        <v>-0.1139837232914837</v>
       </c>
       <c r="F85">
-        <v>0.1671287968513692</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.187997217899123</v>
+      </c>
+      <c r="G85">
+        <v>0.04124687891244148</v>
+      </c>
+      <c r="H85">
+        <v>0.01657976122349459</v>
+      </c>
+      <c r="I85">
+        <v>0.02735917037408659</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.02232853920961321</v>
+        <v>0.01951298497475737</v>
       </c>
       <c r="C86">
-        <v>-0.008182516718840639</v>
+        <v>-0.03791032843717621</v>
       </c>
       <c r="D86">
-        <v>-0.06407815085728899</v>
+        <v>0.01037646747501186</v>
       </c>
       <c r="E86">
-        <v>0.01701997929432349</v>
+        <v>-0.01477185628369932</v>
       </c>
       <c r="F86">
-        <v>-0.08798481915654148</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.08812996819882163</v>
+      </c>
+      <c r="G86">
+        <v>0.05888499564004312</v>
+      </c>
+      <c r="H86">
+        <v>-0.0172012128666444</v>
+      </c>
+      <c r="I86">
+        <v>0.07459359990169541</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.01295097362261957</v>
+        <v>0.02381453167495344</v>
       </c>
       <c r="C87">
-        <v>0.02345945206548228</v>
+        <v>0.009623043738323525</v>
       </c>
       <c r="D87">
-        <v>0.04103107505230848</v>
+        <v>-0.0005696445688799593</v>
       </c>
       <c r="E87">
-        <v>-0.01713031026106855</v>
+        <v>0.003858459238920145</v>
       </c>
       <c r="F87">
-        <v>-0.1042431378566134</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.106222745165153</v>
+      </c>
+      <c r="G87">
+        <v>0.008981822416633808</v>
+      </c>
+      <c r="H87">
+        <v>0.01411766536408403</v>
+      </c>
+      <c r="I87">
+        <v>0.06436223571661499</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.01734485298620985</v>
+        <v>0.03215840700910527</v>
       </c>
       <c r="C88">
-        <v>0.009006585402846075</v>
+        <v>0.007348418405314951</v>
       </c>
       <c r="D88">
-        <v>0.006258490686626183</v>
+        <v>0.001198515303771663</v>
       </c>
       <c r="E88">
-        <v>0.01853728817689784</v>
+        <v>-0.00730721776323412</v>
       </c>
       <c r="F88">
-        <v>0.004921790010778226</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.004445693567941317</v>
+      </c>
+      <c r="G88">
+        <v>-0.003474189679650429</v>
+      </c>
+      <c r="H88">
+        <v>-0.05642281387120728</v>
+      </c>
+      <c r="I88">
+        <v>0.009128199490448401</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.1122649538967177</v>
+        <v>0.1491391028435198</v>
       </c>
       <c r="C89">
-        <v>0.1080685756675249</v>
+        <v>0.3296578561391771</v>
       </c>
       <c r="D89">
-        <v>0.2847700728128267</v>
+        <v>-0.1786271468001203</v>
       </c>
       <c r="E89">
-        <v>-0.1715663339507271</v>
+        <v>0.09955128722294125</v>
       </c>
       <c r="F89">
-        <v>-0.04631173463490403</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.02324407636878374</v>
+      </c>
+      <c r="G89">
+        <v>0.09423691455353735</v>
+      </c>
+      <c r="H89">
+        <v>-0.02945873985439542</v>
+      </c>
+      <c r="I89">
+        <v>0.04038780262422816</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.09082063936824762</v>
+        <v>0.1038757638465664</v>
       </c>
       <c r="C90">
-        <v>0.09896858631176758</v>
+        <v>0.2875206767072343</v>
       </c>
       <c r="D90">
-        <v>0.2718858129017239</v>
+        <v>-0.1348802093007734</v>
       </c>
       <c r="E90">
-        <v>-0.1048281788943787</v>
+        <v>0.08626716700694938</v>
       </c>
       <c r="F90">
-        <v>-0.04921354297703494</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.005017041970229999</v>
+      </c>
+      <c r="G90">
+        <v>0.07911360217198472</v>
+      </c>
+      <c r="H90">
+        <v>-0.01746466421672307</v>
+      </c>
+      <c r="I90">
+        <v>0.0004153917164733319</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.2911678982240108</v>
+        <v>0.282404881805364</v>
       </c>
       <c r="C91">
-        <v>0.05081334161596809</v>
+        <v>-0.1017234874944435</v>
       </c>
       <c r="D91">
-        <v>-0.08542932810351975</v>
+        <v>0.01828775121159057</v>
       </c>
       <c r="E91">
-        <v>0.03679475058813106</v>
+        <v>-0.1174184857065813</v>
       </c>
       <c r="F91">
-        <v>0.2457687013540027</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.2565504301194877</v>
+      </c>
+      <c r="G91">
+        <v>0.06124922312428437</v>
+      </c>
+      <c r="H91">
+        <v>0.05057652463891379</v>
+      </c>
+      <c r="I91">
+        <v>0.01954100487440301</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.1236312134482487</v>
+        <v>0.1855926233664844</v>
       </c>
       <c r="C92">
-        <v>0.05418392706523261</v>
+        <v>0.3056504085675748</v>
       </c>
       <c r="D92">
-        <v>0.3292629987792466</v>
+        <v>-0.1243868835988623</v>
       </c>
       <c r="E92">
-        <v>-0.117503550023867</v>
+        <v>0.1211947972140269</v>
       </c>
       <c r="F92">
-        <v>0.01645335277825948</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.09445761129476271</v>
+      </c>
+      <c r="G92">
+        <v>0.2138743101984062</v>
+      </c>
+      <c r="H92">
+        <v>-0.06024116269721015</v>
+      </c>
+      <c r="I92">
+        <v>-0.006290749895114686</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.09431230424163574</v>
+        <v>0.1308868670800139</v>
       </c>
       <c r="C93">
-        <v>0.1001686985326179</v>
+        <v>0.340829469263474</v>
       </c>
       <c r="D93">
-        <v>0.3389462814556494</v>
+        <v>-0.1705220422406485</v>
       </c>
       <c r="E93">
-        <v>-0.1483273308788713</v>
+        <v>0.1322861839938572</v>
       </c>
       <c r="F93">
-        <v>0.02408815483578446</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.03464192031239148</v>
+      </c>
+      <c r="G93">
+        <v>0.01860895122450937</v>
+      </c>
+      <c r="H93">
+        <v>-0.04965150572298012</v>
+      </c>
+      <c r="I93">
+        <v>-0.04430512902017786</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2751075195750172</v>
+        <v>0.2997385722507398</v>
       </c>
       <c r="C94">
-        <v>0.08805511259297502</v>
+        <v>-0.03453572253667068</v>
       </c>
       <c r="D94">
-        <v>0.02307758041815442</v>
+        <v>-0.0257177916781348</v>
       </c>
       <c r="E94">
-        <v>-0.007344891814416391</v>
+        <v>-0.1294843081393314</v>
       </c>
       <c r="F94">
-        <v>0.207195614154772</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.2720366920622424</v>
+      </c>
+      <c r="G94">
+        <v>0.09291094387090046</v>
+      </c>
+      <c r="H94">
+        <v>0.2111873420254462</v>
+      </c>
+      <c r="I94">
+        <v>0.0306132317666792</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1549001430014945</v>
+        <v>0.1273667492545549</v>
       </c>
       <c r="C95">
-        <v>-0.01393095141486745</v>
+        <v>-0.11177841404535</v>
       </c>
       <c r="D95">
-        <v>-0.1847980407170599</v>
+        <v>-0.04719944577519418</v>
       </c>
       <c r="E95">
-        <v>0.001680625420307512</v>
+        <v>-0.04194128744908127</v>
       </c>
       <c r="F95">
-        <v>0.4865017742354816</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.07849080590937374</v>
+      </c>
+      <c r="G95">
+        <v>-0.09843308570348328</v>
+      </c>
+      <c r="H95">
+        <v>-0.8782388526159285</v>
+      </c>
+      <c r="I95">
+        <v>-0.3117094048169229</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.2202371672290122</v>
+        <v>0.2235389439897457</v>
       </c>
       <c r="C98">
-        <v>0.03263420754090222</v>
+        <v>-0.001293506861741625</v>
       </c>
       <c r="D98">
-        <v>0.0133464116932982</v>
+        <v>-0.07238645411884136</v>
       </c>
       <c r="E98">
-        <v>-0.09017003114991533</v>
+        <v>0.02241776715889954</v>
       </c>
       <c r="F98">
-        <v>-0.06953231552229415</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.1845011132056446</v>
+      </c>
+      <c r="G98">
+        <v>-0.3818162649372012</v>
+      </c>
+      <c r="H98">
+        <v>0.06244567071955909</v>
+      </c>
+      <c r="I98">
+        <v>-0.03620298062566153</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,70 +3597,106 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.003481756913688021</v>
+        <v>0.01370341699530267</v>
       </c>
       <c r="C101">
-        <v>0.02223295497242004</v>
+        <v>-0.02419641613921117</v>
       </c>
       <c r="D101">
-        <v>-0.06526137047666977</v>
+        <v>0.01229438632825091</v>
       </c>
       <c r="E101">
-        <v>0.04030690851380597</v>
+        <v>-0.03870821629997925</v>
       </c>
       <c r="F101">
-        <v>-0.02440850129842245</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.07953500125999499</v>
+      </c>
+      <c r="G101">
+        <v>0.1112673332760543</v>
+      </c>
+      <c r="H101">
+        <v>-0.006451130450802693</v>
+      </c>
+      <c r="I101">
+        <v>-0.1181992846310603</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.09718429087271632</v>
+        <v>0.114001790230369</v>
       </c>
       <c r="C102">
-        <v>0.02280733597149614</v>
+        <v>-0.0396578079511604</v>
       </c>
       <c r="D102">
-        <v>-0.04400895160158687</v>
+        <v>0.01617487060839104</v>
       </c>
       <c r="E102">
-        <v>0.03708172738888024</v>
+        <v>-0.05724921886307199</v>
       </c>
       <c r="F102">
-        <v>0.0940686725816752</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.1081694204226524</v>
+      </c>
+      <c r="G102">
+        <v>0.02196901192424863</v>
+      </c>
+      <c r="H102">
+        <v>0.002315945780871744</v>
+      </c>
+      <c r="I102">
+        <v>0.01972699113363597</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>0.02130726988672262</v>
+        <v>0.02760724521415011</v>
       </c>
       <c r="C103">
-        <v>0.01002441729952461</v>
+        <v>-0.006581244737636084</v>
       </c>
       <c r="D103">
-        <v>-0.006363176371574816</v>
+        <v>0.01083521204812253</v>
       </c>
       <c r="E103">
-        <v>0.007977610851991706</v>
+        <v>-0.02024182703432365</v>
       </c>
       <c r="F103">
-        <v>0.02189931027191694</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.01787492192365838</v>
+      </c>
+      <c r="G103">
+        <v>0.01714989205630707</v>
+      </c>
+      <c r="H103">
+        <v>-0.00888369845378266</v>
+      </c>
+      <c r="I103">
+        <v>0.01720450598174748</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +3711,15 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
